--- a/Document/配置工作流.xlsx
+++ b/Document/配置工作流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>配置工作规则及流程</t>
   </si>
@@ -66,13 +66,19 @@
     <t>防止游戏中修改了本应该一直不变的配置数据</t>
   </si>
   <si>
+    <t>11.游戏内通过configdataComponent获取数据</t>
+  </si>
+  <si>
+    <t>12.同一个container可以创建多个实例，但要保证所有实例中不存在重复ID，如果存在将无法预料游戏中会使用ID的哪个值</t>
+  </si>
+  <si>
     <t>流程</t>
   </si>
   <si>
     <t>1.游戏开始时通过遍历总表读取所有container并保存起来，总表路径配置在ConfigDataComponent的一个字符串字段中</t>
   </si>
   <si>
-    <t>3.在编辑器环境下配置数据 并将数据导入到CSharp程序集的只读数据中</t>
+    <t>2.在编辑器环境下配置数据 并将数据导入到CSharp程序集的数据中</t>
   </si>
 </sst>
 </file>
@@ -80,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,6 +114,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -124,6 +137,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -133,6 +169,30 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,14 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -163,37 +215,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,29 +229,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,9 +242,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,30 +466,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,16 +486,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,19 +529,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1075,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1167,9 +1173,19 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2"/>
     </row>
@@ -1179,12 +1195,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
